--- a/TestDocs/TestCase/CoinMena TestCase.xlsx
+++ b/TestDocs/TestCase/CoinMena TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Selenium CSE\Selenium workspace\CoinMena_QAAutomationProject\TestDocs\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5EBDF-6A6A-4BB8-8978-407E54D2B29C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB3315-3497-4B47-9C9C-DF8786871E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5640" activeTab="3" xr2:uid="{C82DD6A8-68C9-4736-9BE0-19916EB9256C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5640" activeTab="2" xr2:uid="{C82DD6A8-68C9-4736-9BE0-19916EB9256C}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
   <si>
     <t>Step</t>
   </si>
@@ -456,9 +456,6 @@
     <t>User will be navigated to  dleivery page for check Out</t>
   </si>
   <si>
-    <t>End to End Checkout</t>
-  </si>
-  <si>
     <t>Click on Proceed to Checkout</t>
   </si>
   <si>
@@ -484,6 +481,39 @@
   </si>
   <si>
     <t>User Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Verify payments</t>
+  </si>
+  <si>
+    <t>Click on Pay By Bank Wire</t>
+  </si>
+  <si>
+    <t>Verify the product and Total Price is matching</t>
+  </si>
+  <si>
+    <t>User lands in to Bank Wire payment</t>
+  </si>
+  <si>
+    <t>Verify total amount of the order</t>
+  </si>
+  <si>
+    <t>Verify currency to be sent via bank wire</t>
+  </si>
+  <si>
+    <t>Proceed To Order Confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Amount should match the Price of the items </t>
+  </si>
+  <si>
+    <t>The currency should correctly reflect in the order summary</t>
+  </si>
+  <si>
+    <t>On Successful submission message should come "Your order on My Store is complete."</t>
+  </si>
+  <si>
+    <t>Place Order for End To End Purchase</t>
   </si>
 </sst>
 </file>
@@ -922,8 +952,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7AA5E545-F858-401E-8CD0-D03E528ACBB1}" name="Table6" displayName="Table6" ref="D2:I25" totalsRowShown="0">
-  <autoFilter ref="D2:I25" xr:uid="{EA966645-F8D8-4CC4-B75E-01B732C7D1A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7AA5E545-F858-401E-8CD0-D03E528ACBB1}" name="Table6" displayName="Table6" ref="D2:I30" totalsRowShown="0">
+  <autoFilter ref="D2:I30" xr:uid="{EA966645-F8D8-4CC4-B75E-01B732C7D1A4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DFEAA262-3CB5-4B8F-8ABF-07D5F9CFD310}" name="Step"/>
     <tableColumn id="2" xr3:uid="{54270319-5260-434B-9A08-33B02C38E200}" name="Action"/>
@@ -2128,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9551A322-176C-4384-9462-98C7346C9611}">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2514,6 +2544,9 @@
       <c r="F25" t="s">
         <v>141</v>
       </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
@@ -2533,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E574F-D644-458C-8EC8-FFC763EE17FD}">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,7 +2610,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
@@ -2618,7 +2651,7 @@
         <v>1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -2634,7 +2667,7 @@
         <v>1.4</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -2650,7 +2683,7 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2666,7 +2699,7 @@
         <v>1.6</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -2679,98 +2712,119 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -2778,12 +2832,15 @@
       <c r="F16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -2791,12 +2848,15 @@
       <c r="F17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
@@ -2804,12 +2864,15 @@
       <c r="F18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -2817,12 +2880,15 @@
       <c r="F19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -2830,12 +2896,15 @@
       <c r="F20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -2843,12 +2912,15 @@
       <c r="F21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -2856,12 +2928,15 @@
       <c r="F22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -2869,12 +2944,15 @@
       <c r="F23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -2882,18 +2960,94 @@
       <c r="F24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>3.4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>3.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>3.6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>3.7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>3.8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
